--- a/out/artifacts/BoardsCutter_jar/Boards Cutter template.xlsx
+++ b/out/artifacts/BoardsCutter_jar/Boards Cutter template.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Igor\Programming\Boards Cutter\BoardsCutter\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FEF01F-3AD4-46A7-AD8F-79FD33FC3189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689940AB-AB6E-4028-9E54-F4F861A6BC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28455" yWindow="915" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$4:$I$300</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
   <si>
     <t>Материалы</t>
   </si>
@@ -67,9 +70,6 @@
     <t>Длина</t>
   </si>
   <si>
-    <t>50х150</t>
-  </si>
-  <si>
     <t>Марки элементов</t>
   </si>
   <si>
@@ -82,15 +82,6 @@
     <t>Кол-во</t>
   </si>
   <si>
-    <t>П-1</t>
-  </si>
-  <si>
-    <t>П-2</t>
-  </si>
-  <si>
-    <t>П-3</t>
-  </si>
-  <si>
     <t>Ячейки для заполнения - зеленые</t>
   </si>
   <si>
@@ -115,7 +106,310 @@
     <t>Толщина режущего полотна</t>
   </si>
   <si>
-    <t>Значение</t>
+    <t>50x100</t>
+  </si>
+  <si>
+    <t>50x200</t>
+  </si>
+  <si>
+    <t>25x150</t>
+  </si>
+  <si>
+    <t>50x150</t>
+  </si>
+  <si>
+    <t>Верхняя обвязка (2000)</t>
+  </si>
+  <si>
+    <t>Верхняя обвязка (5600)</t>
+  </si>
+  <si>
+    <t>Верхняя обвязка (5570)</t>
+  </si>
+  <si>
+    <t>Верхняя обвязка (3530)</t>
+  </si>
+  <si>
+    <t>Верхняя обвязка (1850)</t>
+  </si>
+  <si>
+    <t>Верхняя обвязка (1725)</t>
+  </si>
+  <si>
+    <t>Верхняя обвязка фронтонов (2021)</t>
+  </si>
+  <si>
+    <t>Верхняя обвязка фронтонов (1097)</t>
+  </si>
+  <si>
+    <t>Вторая верхняя обвязка (5600)</t>
+  </si>
+  <si>
+    <t>Вторая верхняя обвязка (5450)</t>
+  </si>
+  <si>
+    <t>Вторая верхняя обвязка (3650)</t>
+  </si>
+  <si>
+    <t>Колонна подстропильного бруса (4311)</t>
+  </si>
+  <si>
+    <t>Крепления для крайних стропил (590)</t>
+  </si>
+  <si>
+    <t>Лаги антресоли (5500)</t>
+  </si>
+  <si>
+    <t>Лаги антресоли (2400)</t>
+  </si>
+  <si>
+    <t>Лаги антресоли (2300)</t>
+  </si>
+  <si>
+    <t>Лаги антресоли (590)</t>
+  </si>
+  <si>
+    <t>Лаги антресоли (150)</t>
+  </si>
+  <si>
+    <t>Лаги лестницы (2000)</t>
+  </si>
+  <si>
+    <t>Лаги лестницы (1250)</t>
+  </si>
+  <si>
+    <t>Лаги лестницы (1165)</t>
+  </si>
+  <si>
+    <t>Лаги лестницы (500)</t>
+  </si>
+  <si>
+    <t>Лаги лестницы (450)</t>
+  </si>
+  <si>
+    <t>Лаги лестницы (400)</t>
+  </si>
+  <si>
+    <t>Лаги лестницы (300)</t>
+  </si>
+  <si>
+    <t>Лаги перекрытия (6000)</t>
+  </si>
+  <si>
+    <t>Лаги перекрытия (5900)</t>
+  </si>
+  <si>
+    <t>Лаги перекрытия (3000)</t>
+  </si>
+  <si>
+    <t>Лаги перекрытия (640)</t>
+  </si>
+  <si>
+    <t>Лаги перекрытия (590)</t>
+  </si>
+  <si>
+    <t>Лаги перекрытия (210)</t>
+  </si>
+  <si>
+    <t>Лаги перекрытия (200)</t>
+  </si>
+  <si>
+    <t>Нижняя обвязка стен (1000)</t>
+  </si>
+  <si>
+    <t>Нижняя обвязка стен (100)</t>
+  </si>
+  <si>
+    <t>Нижняя обвязка стен (5985)</t>
+  </si>
+  <si>
+    <t>Нижняя обвязка стен (3115)</t>
+  </si>
+  <si>
+    <t>Нижняя обвязка стен (2350)</t>
+  </si>
+  <si>
+    <t>Нижняя обвязка стен (2050)</t>
+  </si>
+  <si>
+    <t>Нижняя обвязка стен (1725)</t>
+  </si>
+  <si>
+    <t>Нижняя обвязка стен (475)</t>
+  </si>
+  <si>
+    <t>Нижняя обвязка фронтонов (5600)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (6000)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (5900)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (4750)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (4650)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (4350)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (2225)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (2175)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (2125)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (2075)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (1950)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (1925)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (1875)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (1850)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (1825)</t>
+  </si>
+  <si>
+    <t>Обвязка фундамента (1775)</t>
+  </si>
+  <si>
+    <t>Подстропильный брус (6000)</t>
+  </si>
+  <si>
+    <t>Подстропильный брус (5000)</t>
+  </si>
+  <si>
+    <t>Подстропильный брус (3460)</t>
+  </si>
+  <si>
+    <t>Подстропильный брус (2460)</t>
+  </si>
+  <si>
+    <t>Рамы проемов (1500)</t>
+  </si>
+  <si>
+    <t>Рамы проемов (900)</t>
+  </si>
+  <si>
+    <t>Рамы проемов (500)</t>
+  </si>
+  <si>
+    <t>Рамы проемов (150)</t>
+  </si>
+  <si>
+    <t>Ригель (4930)</t>
+  </si>
+  <si>
+    <t>Ригель (4170)</t>
+  </si>
+  <si>
+    <t>Ригель (1600)</t>
+  </si>
+  <si>
+    <t>Ригель (1000)</t>
+  </si>
+  <si>
+    <t>Стойки (2100)</t>
+  </si>
+  <si>
+    <t>Стойки (3000)</t>
+  </si>
+  <si>
+    <t>Стойки (2064)</t>
+  </si>
+  <si>
+    <t>Стойки (1819)</t>
+  </si>
+  <si>
+    <t>Стойки (1703)</t>
+  </si>
+  <si>
+    <t>Стойки (1611)</t>
+  </si>
+  <si>
+    <t>Стойки (1488)</t>
+  </si>
+  <si>
+    <t>Стойки (1475)</t>
+  </si>
+  <si>
+    <t>Стойки (1119)</t>
+  </si>
+  <si>
+    <t>Стойки (1106)</t>
+  </si>
+  <si>
+    <t>Стойки (1003)</t>
+  </si>
+  <si>
+    <t>Стойки (911)</t>
+  </si>
+  <si>
+    <t>Стойки (875)</t>
+  </si>
+  <si>
+    <t>Стойки (775)</t>
+  </si>
+  <si>
+    <t>Стойки (736)</t>
+  </si>
+  <si>
+    <t>Стойки (637)</t>
+  </si>
+  <si>
+    <t>Стойки (625)</t>
+  </si>
+  <si>
+    <t>Стойки (506)</t>
+  </si>
+  <si>
+    <t>Стойки (406)</t>
+  </si>
+  <si>
+    <t>Стойки (275)</t>
+  </si>
+  <si>
+    <t>Стойки (245)</t>
+  </si>
+  <si>
+    <t>Стойки (36)</t>
+  </si>
+  <si>
+    <t>Стропила (4388)</t>
+  </si>
+  <si>
+    <t>Укосины (3889)</t>
+  </si>
+  <si>
+    <t>Укосины (3059)</t>
+  </si>
+  <si>
+    <t>Укосины (2791)</t>
+  </si>
+  <si>
+    <t>Укосины (2180)</t>
+  </si>
+  <si>
+    <t>Укосины (1802)</t>
+  </si>
+  <si>
+    <t>Укосины (1777)</t>
+  </si>
+  <si>
+    <t>Значение, мм</t>
   </si>
 </sst>
 </file>
@@ -509,28 +803,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,23 +848,245 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -865,56 +1369,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R61"/>
+  <dimension ref="B1:X301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" customWidth="1"/>
-    <col min="6" max="9" width="13.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="2"/>
+    <col min="12" max="13" width="10" style="2" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+    <row r="1" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="2:24" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="2:18" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="2:24" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -923,34 +1430,34 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="str" cm="1">
-        <f t="array" ref="C5:C6">_xlfn.UNIQUE(G5:G60,0,0)</f>
-        <v>50х150</v>
+      <c r="C5" s="35" t="str" cm="1">
+        <f t="array" ref="C5:C9">_xlfn.UNIQUE(G5:G1000)</f>
+        <v>50x200</v>
       </c>
       <c r="D5" s="6">
         <v>6000</v>
@@ -958,972 +1465,5704 @@
       <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="22">
-        <v>500</v>
-      </c>
-      <c r="I5" s="23">
-        <v>15</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="32">
+      <c r="F5" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I5" s="19">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="32">
         <v>0</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="str">
+      <c r="X5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <f>IF(AND(C6&lt;&gt;"",C6&lt;&gt;0),B5+1,"")</f>
-        <v/>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <v>50x100</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6000</v>
+      </c>
       <c r="E6" s="10">
         <f>IF(F6&lt;&gt;"",E5+1,"")</f>
         <v>2</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="20">
+        <v>590</v>
+      </c>
+      <c r="I6" s="21">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="33"/>
+      <c r="X6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <f t="shared" ref="B7:B70" si="0">IF(AND(C7&lt;&gt;"",C7&lt;&gt;0),B6+1,"")</f>
         <v>3</v>
       </c>
-      <c r="H6" s="24">
-        <v>700</v>
-      </c>
-      <c r="I6" s="25">
+      <c r="C7" s="13" t="str">
+        <v>50x150</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:E70" si="1">IF(F7&lt;&gt;"",E6+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="33"/>
-      <c r="R6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="str">
-        <f t="shared" ref="B7:B60" si="0">IF(AND(C7&lt;&gt;"",C7&lt;&gt;0),B6+1,"")</f>
-        <v/>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10">
-        <f t="shared" ref="E7:E60" si="1">IF(F7&lt;&gt;"",E6+1,"")</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="H7" s="20">
+        <v>2100</v>
+      </c>
+      <c r="I7" s="21">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="33"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <v>25x150</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="20">
+        <v>4388</v>
+      </c>
+      <c r="I8" s="21">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="33"/>
+      <c r="X8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="24">
-        <v>200</v>
-      </c>
-      <c r="I7" s="25">
-        <v>15</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="33"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="33"/>
-      <c r="R8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="10" t="str">
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="33"/>
-      <c r="R9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="20">
+        <v>590</v>
+      </c>
+      <c r="I9" s="21">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="33"/>
+      <c r="X9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="10" t="str">
+      <c r="C10" s="13"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="20">
+        <v>300</v>
+      </c>
+      <c r="I10" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="33"/>
+    </row>
+    <row r="11" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="10" t="str">
+      <c r="C11" s="13"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="33"/>
-    </row>
-    <row r="12" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="20">
+        <v>5900</v>
+      </c>
+      <c r="I11" s="21">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="33"/>
+    </row>
+    <row r="12" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="10" t="str">
+      <c r="E12" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="33"/>
-    </row>
-    <row r="13" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1875</v>
+      </c>
+      <c r="I12" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="33"/>
+    </row>
+    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="10" t="str">
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="20">
+        <v>2300</v>
+      </c>
+      <c r="I13" s="21">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="10" t="str">
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="20">
+        <v>4650</v>
+      </c>
+      <c r="I14" s="21">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="33"/>
+    </row>
+    <row r="15" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="10" t="str">
+      <c r="E15" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="2:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1825</v>
+      </c>
+      <c r="I15" s="21">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" spans="2:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="10" t="str">
+      <c r="E16" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="34"/>
+        <v>12</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="20">
+        <v>900</v>
+      </c>
+      <c r="I16" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="34"/>
     </row>
     <row r="17" spans="2:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="10" t="str">
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="20">
+        <v>1950</v>
+      </c>
+      <c r="I17" s="21">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="10" t="str">
+      <c r="E18" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1925</v>
+      </c>
+      <c r="I18" s="21">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="10" t="str">
+      <c r="E19" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="20">
+        <v>4311</v>
+      </c>
+      <c r="I19" s="21">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="10" t="str">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="20">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="10" t="str">
+      <c r="E21" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1250</v>
+      </c>
+      <c r="I21" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="10" t="str">
+      <c r="E22" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="20">
+        <v>1165</v>
+      </c>
+      <c r="I22" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="10" t="str">
+      <c r="E23" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="20">
+        <v>3889</v>
+      </c>
+      <c r="I23" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="10" t="str">
+      <c r="E24" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="20">
+        <v>2791</v>
+      </c>
+      <c r="I24" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="10" t="str">
+      <c r="E25" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="20">
+        <v>911</v>
+      </c>
+      <c r="I25" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="10" t="str">
+      <c r="E26" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="20">
+        <v>875</v>
+      </c>
+      <c r="I26" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="10" t="str">
+      <c r="E27" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
+        <v>23</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="20">
+        <v>1611</v>
+      </c>
+      <c r="I27" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="10" t="str">
+      <c r="E28" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
+        <v>24</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="20">
+        <v>150</v>
+      </c>
+      <c r="I28" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="10" t="str">
+      <c r="E29" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+        <v>25</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="20">
+        <v>6000</v>
+      </c>
+      <c r="I29" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="10" t="str">
+      <c r="E30" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="20">
+        <v>2460</v>
+      </c>
+      <c r="I30" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="10" t="str">
+      <c r="E31" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="20">
+        <v>4750</v>
+      </c>
+      <c r="I31" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="10" t="str">
+      <c r="E32" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="20">
+        <v>2125</v>
+      </c>
+      <c r="I32" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="10" t="str">
+      <c r="E33" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
+        <v>29</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="20">
+        <v>6000</v>
+      </c>
+      <c r="I33" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="10" t="str">
+      <c r="E34" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
+        <v>30</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="20">
+        <v>2021</v>
+      </c>
+      <c r="I34" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="10" t="str">
+      <c r="E35" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="20">
+        <v>1097</v>
+      </c>
+      <c r="I35" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="10" t="str">
+      <c r="E36" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="20">
+        <v>3059</v>
+      </c>
+      <c r="I36" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="10" t="str">
+      <c r="E37" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="20">
+        <v>2180</v>
+      </c>
+      <c r="I37" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="10" t="str">
+      <c r="E38" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="20">
+        <v>1802</v>
+      </c>
+      <c r="I38" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="10" t="str">
+      <c r="E39" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25"/>
+        <v>35</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="20">
+        <v>1777</v>
+      </c>
+      <c r="I39" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="10" t="str">
+      <c r="E40" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="20">
+        <v>775</v>
+      </c>
+      <c r="I40" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="10" t="str">
+      <c r="E41" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="20">
+        <v>736</v>
+      </c>
+      <c r="I41" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="10" t="str">
+      <c r="E42" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="20">
+        <v>625</v>
+      </c>
+      <c r="I42" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="10" t="str">
+      <c r="E43" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="20">
+        <v>406</v>
+      </c>
+      <c r="I43" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="10" t="str">
+      <c r="E44" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="20">
+        <v>36</v>
+      </c>
+      <c r="I44" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="10" t="str">
+      <c r="E45" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="20">
+        <v>275</v>
+      </c>
+      <c r="I45" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="10" t="str">
+      <c r="E46" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="20">
+        <v>245</v>
+      </c>
+      <c r="I46" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C47" s="14"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="10" t="str">
+      <c r="E47" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="20">
+        <v>2064</v>
+      </c>
+      <c r="I47" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="10" t="str">
+      <c r="E48" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="20">
+        <v>1819</v>
+      </c>
+      <c r="I48" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="10" t="str">
+      <c r="E49" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="20">
+        <v>1703</v>
+      </c>
+      <c r="I49" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="10" t="str">
+      <c r="E50" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25"/>
+        <v>46</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="20">
+        <v>1488</v>
+      </c>
+      <c r="I50" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="10" t="str">
+      <c r="E51" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25"/>
+        <v>47</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="20">
+        <v>1475</v>
+      </c>
+      <c r="I51" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="10" t="str">
+      <c r="E52" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="20">
+        <v>1119</v>
+      </c>
+      <c r="I52" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="10" t="str">
+      <c r="E53" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25"/>
+        <v>49</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="20">
+        <v>1106</v>
+      </c>
+      <c r="I53" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="10" t="str">
+      <c r="E54" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25"/>
+        <v>50</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="20">
+        <v>1003</v>
+      </c>
+      <c r="I54" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C55" s="14"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="10" t="str">
+      <c r="E55" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="20">
+        <v>4930</v>
+      </c>
+      <c r="I55" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C56" s="14"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="10" t="str">
+      <c r="E56" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="20">
+        <v>4170</v>
+      </c>
+      <c r="I56" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="10" t="str">
+      <c r="E57" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="20">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="10" t="str">
+      <c r="E58" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="25"/>
+        <v>54</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="20">
+        <v>500</v>
+      </c>
+      <c r="I58" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="10" t="str">
+      <c r="E59" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="25"/>
-    </row>
-    <row r="60" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="11" t="str">
+        <v>55</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="20">
+        <v>5000</v>
+      </c>
+      <c r="I59" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="11" t="str">
+      <c r="C60" s="13"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="27"/>
-    </row>
-    <row r="61" spans="2:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>56</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="20">
+        <v>3460</v>
+      </c>
+      <c r="I60" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="10">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="20">
+        <v>6000</v>
+      </c>
+      <c r="I61" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="10">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="20">
+        <v>5900</v>
+      </c>
+      <c r="I62" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="10">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="20">
+        <v>4350</v>
+      </c>
+      <c r="I63" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="10">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="20">
+        <v>2225</v>
+      </c>
+      <c r="I64" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="10">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="20">
+        <v>2175</v>
+      </c>
+      <c r="I65" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="10">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="20">
+        <v>2075</v>
+      </c>
+      <c r="I66" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="10">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="20">
+        <v>1850</v>
+      </c>
+      <c r="I67" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="10">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="20">
+        <v>1775</v>
+      </c>
+      <c r="I68" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="10">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="20">
+        <v>5985</v>
+      </c>
+      <c r="I69" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="10">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="20">
+        <v>475</v>
+      </c>
+      <c r="I70" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="str">
+        <f t="shared" ref="B71:B134" si="2">IF(AND(C71&lt;&gt;"",C71&lt;&gt;0),B70+1,"")</f>
+        <v/>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="10">
+        <f t="shared" ref="E71:E134" si="3">IF(F71&lt;&gt;"",E70+1,"")</f>
+        <v>67</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="20">
+        <v>2350</v>
+      </c>
+      <c r="I71" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="10">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="20">
+        <v>2050</v>
+      </c>
+      <c r="I72" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="10">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="20">
+        <v>1725</v>
+      </c>
+      <c r="I73" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="10">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="20">
+        <v>1000</v>
+      </c>
+      <c r="I74" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="10">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="20">
+        <v>100</v>
+      </c>
+      <c r="I75" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="10">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="20">
+        <v>3000</v>
+      </c>
+      <c r="I76" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="10">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="20">
+        <v>450</v>
+      </c>
+      <c r="I77" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="10">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="20">
+        <v>590</v>
+      </c>
+      <c r="I78" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="10">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="20">
+        <v>5500</v>
+      </c>
+      <c r="I79" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="10">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="20">
+        <v>2400</v>
+      </c>
+      <c r="I80" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="10">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="20">
+        <v>150</v>
+      </c>
+      <c r="I81" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="10">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="20">
+        <v>5450</v>
+      </c>
+      <c r="I82" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="10">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="20">
+        <v>3650</v>
+      </c>
+      <c r="I83" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="10">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="20">
+        <v>5600</v>
+      </c>
+      <c r="I84" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="10">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="20">
+        <v>5570</v>
+      </c>
+      <c r="I85" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="10">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="20">
+        <v>3530</v>
+      </c>
+      <c r="I86" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="10">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="20">
+        <v>2000</v>
+      </c>
+      <c r="I87" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="10">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="20">
+        <v>1725</v>
+      </c>
+      <c r="I88" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="10">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="20">
+        <v>637</v>
+      </c>
+      <c r="I89" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="10">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="20">
+        <v>506</v>
+      </c>
+      <c r="I90" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="10">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="20">
+        <v>1600</v>
+      </c>
+      <c r="I91" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="10">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="20">
+        <v>1500</v>
+      </c>
+      <c r="I92" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="10">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="20">
+        <v>5600</v>
+      </c>
+      <c r="I93" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="10">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="20">
+        <v>3115</v>
+      </c>
+      <c r="I94" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="10">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="20">
+        <v>3115</v>
+      </c>
+      <c r="I95" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="10">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="20">
+        <v>640</v>
+      </c>
+      <c r="I96" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="10">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="20">
+        <v>210</v>
+      </c>
+      <c r="I97" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="10">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="20">
+        <v>200</v>
+      </c>
+      <c r="I98" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="10">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="20">
+        <v>500</v>
+      </c>
+      <c r="I99" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="10">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="20">
+        <v>400</v>
+      </c>
+      <c r="I100" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="10">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="20">
+        <v>5600</v>
+      </c>
+      <c r="I101" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="10">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="20">
+        <v>1850</v>
+      </c>
+      <c r="I102" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F103" s="30"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="21"/>
+    </row>
+    <row r="104" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F104" s="30"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="21"/>
+    </row>
+    <row r="105" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F105" s="30"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="21"/>
+    </row>
+    <row r="106" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F106" s="30"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="21"/>
+    </row>
+    <row r="107" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F107" s="30"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="21"/>
+    </row>
+    <row r="108" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F108" s="30"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="21"/>
+    </row>
+    <row r="109" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F109" s="30"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="21"/>
+    </row>
+    <row r="110" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F110" s="30"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="21"/>
+    </row>
+    <row r="111" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F111" s="30"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="21"/>
+    </row>
+    <row r="112" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F112" s="30"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="21"/>
+    </row>
+    <row r="113" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F113" s="30"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="21"/>
+    </row>
+    <row r="114" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F114" s="30"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="21"/>
+    </row>
+    <row r="115" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F115" s="30"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="21"/>
+    </row>
+    <row r="116" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F116" s="30"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="21"/>
+    </row>
+    <row r="117" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F117" s="30"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="21"/>
+    </row>
+    <row r="118" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F118" s="30"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="21"/>
+    </row>
+    <row r="119" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F119" s="30"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="21"/>
+    </row>
+    <row r="120" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F120" s="30"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="21"/>
+    </row>
+    <row r="121" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F121" s="30"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="21"/>
+    </row>
+    <row r="122" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F122" s="30"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="21"/>
+    </row>
+    <row r="123" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F123" s="30"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="21"/>
+    </row>
+    <row r="124" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F124" s="30"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="21"/>
+    </row>
+    <row r="125" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C125" s="13"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F125" s="30"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="21"/>
+    </row>
+    <row r="126" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F126" s="30"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="21"/>
+    </row>
+    <row r="127" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F127" s="30"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="21"/>
+    </row>
+    <row r="128" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F128" s="30"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="21"/>
+    </row>
+    <row r="129" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F129" s="30"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="21"/>
+    </row>
+    <row r="130" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F130" s="30"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="21"/>
+    </row>
+    <row r="131" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F131" s="30"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="21"/>
+    </row>
+    <row r="132" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F132" s="30"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="21"/>
+    </row>
+    <row r="133" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F133" s="30"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="21"/>
+    </row>
+    <row r="134" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F134" s="30"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="21"/>
+    </row>
+    <row r="135" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="10" t="str">
+        <f t="shared" ref="B135:B198" si="4">IF(AND(C135&lt;&gt;"",C135&lt;&gt;0),B134+1,"")</f>
+        <v/>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="10" t="str">
+        <f t="shared" ref="E135:E198" si="5">IF(F135&lt;&gt;"",E134+1,"")</f>
+        <v/>
+      </c>
+      <c r="F135" s="30"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="21"/>
+    </row>
+    <row r="136" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F136" s="30"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="21"/>
+    </row>
+    <row r="137" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F137" s="30"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="21"/>
+    </row>
+    <row r="138" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F138" s="30"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="21"/>
+    </row>
+    <row r="139" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F139" s="30"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="21"/>
+    </row>
+    <row r="140" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F140" s="30"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="21"/>
+    </row>
+    <row r="141" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F141" s="30"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="21"/>
+    </row>
+    <row r="142" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F142" s="30"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="21"/>
+    </row>
+    <row r="143" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F143" s="30"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="21"/>
+    </row>
+    <row r="144" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F144" s="30"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="21"/>
+    </row>
+    <row r="145" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F145" s="30"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="21"/>
+    </row>
+    <row r="146" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F146" s="30"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="21"/>
+    </row>
+    <row r="147" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F147" s="30"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="21"/>
+    </row>
+    <row r="148" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F148" s="30"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="21"/>
+    </row>
+    <row r="149" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F149" s="30"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="21"/>
+    </row>
+    <row r="150" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F150" s="30"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="21"/>
+    </row>
+    <row r="151" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F151" s="30"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="21"/>
+    </row>
+    <row r="152" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F152" s="30"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="21"/>
+    </row>
+    <row r="153" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F153" s="30"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="21"/>
+    </row>
+    <row r="154" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F154" s="30"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="21"/>
+    </row>
+    <row r="155" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F155" s="30"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="21"/>
+    </row>
+    <row r="156" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F156" s="30"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="21"/>
+    </row>
+    <row r="157" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F157" s="30"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="21"/>
+    </row>
+    <row r="158" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F158" s="30"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="21"/>
+    </row>
+    <row r="159" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F159" s="30"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="21"/>
+    </row>
+    <row r="160" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F160" s="30"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="21"/>
+    </row>
+    <row r="161" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F161" s="30"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="21"/>
+    </row>
+    <row r="162" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F162" s="30"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="21"/>
+    </row>
+    <row r="163" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F163" s="30"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="21"/>
+    </row>
+    <row r="164" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F164" s="30"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="21"/>
+    </row>
+    <row r="165" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C165" s="13"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F165" s="30"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="21"/>
+    </row>
+    <row r="166" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C166" s="13"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F166" s="30"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="21"/>
+    </row>
+    <row r="167" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F167" s="30"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="21"/>
+    </row>
+    <row r="168" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F168" s="30"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="21"/>
+    </row>
+    <row r="169" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F169" s="30"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="21"/>
+    </row>
+    <row r="170" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F170" s="30"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="21"/>
+    </row>
+    <row r="171" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F171" s="30"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="21"/>
+    </row>
+    <row r="172" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F172" s="30"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="21"/>
+    </row>
+    <row r="173" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F173" s="30"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="21"/>
+    </row>
+    <row r="174" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F174" s="30"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="21"/>
+    </row>
+    <row r="175" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F175" s="30"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="21"/>
+    </row>
+    <row r="176" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F176" s="30"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="21"/>
+    </row>
+    <row r="177" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C177" s="13"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F177" s="30"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="21"/>
+    </row>
+    <row r="178" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F178" s="30"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="21"/>
+    </row>
+    <row r="179" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F179" s="30"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="21"/>
+    </row>
+    <row r="180" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C180" s="13"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F180" s="30"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="21"/>
+    </row>
+    <row r="181" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F181" s="30"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="21"/>
+    </row>
+    <row r="182" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C182" s="13"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F182" s="30"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="21"/>
+    </row>
+    <row r="183" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C183" s="13"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F183" s="30"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="21"/>
+    </row>
+    <row r="184" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F184" s="30"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="21"/>
+    </row>
+    <row r="185" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C185" s="13"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F185" s="30"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="21"/>
+    </row>
+    <row r="186" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C186" s="13"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F186" s="30"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="21"/>
+    </row>
+    <row r="187" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C187" s="13"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F187" s="30"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="21"/>
+    </row>
+    <row r="188" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C188" s="13"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F188" s="30"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="21"/>
+    </row>
+    <row r="189" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F189" s="30"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="20"/>
+      <c r="I189" s="21"/>
+    </row>
+    <row r="190" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C190" s="13"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F190" s="30"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="21"/>
+    </row>
+    <row r="191" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C191" s="13"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F191" s="30"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="21"/>
+    </row>
+    <row r="192" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C192" s="13"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F192" s="30"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="21"/>
+    </row>
+    <row r="193" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C193" s="13"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F193" s="30"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="21"/>
+    </row>
+    <row r="194" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C194" s="13"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F194" s="30"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="21"/>
+    </row>
+    <row r="195" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C195" s="13"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F195" s="30"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="21"/>
+    </row>
+    <row r="196" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C196" s="13"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F196" s="30"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="21"/>
+    </row>
+    <row r="197" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C197" s="13"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F197" s="30"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="20"/>
+      <c r="I197" s="21"/>
+    </row>
+    <row r="198" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C198" s="13"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F198" s="30"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="21"/>
+    </row>
+    <row r="199" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="10" t="str">
+        <f t="shared" ref="B199:B262" si="6">IF(AND(C199&lt;&gt;"",C199&lt;&gt;0),B198+1,"")</f>
+        <v/>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="10" t="str">
+        <f t="shared" ref="E199:E262" si="7">IF(F199&lt;&gt;"",E198+1,"")</f>
+        <v/>
+      </c>
+      <c r="F199" s="30"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="21"/>
+    </row>
+    <row r="200" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C200" s="13"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F200" s="30"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="20"/>
+      <c r="I200" s="21"/>
+    </row>
+    <row r="201" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C201" s="13"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F201" s="30"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="20"/>
+      <c r="I201" s="21"/>
+    </row>
+    <row r="202" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C202" s="13"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F202" s="30"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="21"/>
+    </row>
+    <row r="203" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C203" s="13"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F203" s="30"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="21"/>
+    </row>
+    <row r="204" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C204" s="13"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F204" s="30"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="21"/>
+    </row>
+    <row r="205" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C205" s="13"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F205" s="30"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="21"/>
+    </row>
+    <row r="206" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C206" s="13"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F206" s="30"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="21"/>
+    </row>
+    <row r="207" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C207" s="13"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F207" s="30"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="21"/>
+    </row>
+    <row r="208" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C208" s="13"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F208" s="30"/>
+      <c r="G208" s="16"/>
+      <c r="H208" s="20"/>
+      <c r="I208" s="21"/>
+    </row>
+    <row r="209" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F209" s="30"/>
+      <c r="G209" s="16"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="21"/>
+    </row>
+    <row r="210" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C210" s="13"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F210" s="30"/>
+      <c r="G210" s="16"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="21"/>
+    </row>
+    <row r="211" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C211" s="13"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F211" s="30"/>
+      <c r="G211" s="16"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="21"/>
+    </row>
+    <row r="212" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C212" s="13"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F212" s="30"/>
+      <c r="G212" s="16"/>
+      <c r="H212" s="20"/>
+      <c r="I212" s="21"/>
+    </row>
+    <row r="213" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C213" s="13"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F213" s="30"/>
+      <c r="G213" s="16"/>
+      <c r="H213" s="20"/>
+      <c r="I213" s="21"/>
+    </row>
+    <row r="214" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C214" s="13"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F214" s="30"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="20"/>
+      <c r="I214" s="21"/>
+    </row>
+    <row r="215" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C215" s="13"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F215" s="30"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="20"/>
+      <c r="I215" s="21"/>
+    </row>
+    <row r="216" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C216" s="13"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F216" s="30"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="20"/>
+      <c r="I216" s="21"/>
+    </row>
+    <row r="217" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C217" s="13"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F217" s="30"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="20"/>
+      <c r="I217" s="21"/>
+    </row>
+    <row r="218" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C218" s="13"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F218" s="30"/>
+      <c r="G218" s="16"/>
+      <c r="H218" s="20"/>
+      <c r="I218" s="21"/>
+    </row>
+    <row r="219" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C219" s="13"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F219" s="30"/>
+      <c r="G219" s="16"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="21"/>
+    </row>
+    <row r="220" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C220" s="13"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F220" s="30"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="21"/>
+    </row>
+    <row r="221" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C221" s="13"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F221" s="30"/>
+      <c r="G221" s="16"/>
+      <c r="H221" s="20"/>
+      <c r="I221" s="21"/>
+    </row>
+    <row r="222" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C222" s="13"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F222" s="30"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="20"/>
+      <c r="I222" s="21"/>
+    </row>
+    <row r="223" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C223" s="13"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F223" s="30"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="20"/>
+      <c r="I223" s="21"/>
+    </row>
+    <row r="224" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C224" s="13"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F224" s="30"/>
+      <c r="G224" s="16"/>
+      <c r="H224" s="20"/>
+      <c r="I224" s="21"/>
+    </row>
+    <row r="225" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C225" s="13"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F225" s="30"/>
+      <c r="G225" s="16"/>
+      <c r="H225" s="20"/>
+      <c r="I225" s="21"/>
+    </row>
+    <row r="226" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C226" s="13"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F226" s="30"/>
+      <c r="G226" s="16"/>
+      <c r="H226" s="20"/>
+      <c r="I226" s="21"/>
+    </row>
+    <row r="227" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C227" s="13"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F227" s="30"/>
+      <c r="G227" s="16"/>
+      <c r="H227" s="20"/>
+      <c r="I227" s="21"/>
+    </row>
+    <row r="228" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C228" s="13"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F228" s="30"/>
+      <c r="G228" s="16"/>
+      <c r="H228" s="20"/>
+      <c r="I228" s="21"/>
+    </row>
+    <row r="229" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C229" s="13"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F229" s="30"/>
+      <c r="G229" s="16"/>
+      <c r="H229" s="20"/>
+      <c r="I229" s="21"/>
+    </row>
+    <row r="230" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C230" s="13"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F230" s="30"/>
+      <c r="G230" s="16"/>
+      <c r="H230" s="20"/>
+      <c r="I230" s="21"/>
+    </row>
+    <row r="231" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C231" s="13"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F231" s="30"/>
+      <c r="G231" s="16"/>
+      <c r="H231" s="20"/>
+      <c r="I231" s="21"/>
+    </row>
+    <row r="232" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C232" s="13"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F232" s="30"/>
+      <c r="G232" s="16"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="21"/>
+    </row>
+    <row r="233" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C233" s="13"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F233" s="30"/>
+      <c r="G233" s="16"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="21"/>
+    </row>
+    <row r="234" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C234" s="13"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F234" s="30"/>
+      <c r="G234" s="16"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="21"/>
+    </row>
+    <row r="235" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C235" s="13"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F235" s="30"/>
+      <c r="G235" s="16"/>
+      <c r="H235" s="20"/>
+      <c r="I235" s="21"/>
+    </row>
+    <row r="236" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C236" s="13"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F236" s="30"/>
+      <c r="G236" s="16"/>
+      <c r="H236" s="20"/>
+      <c r="I236" s="21"/>
+    </row>
+    <row r="237" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F237" s="30"/>
+      <c r="G237" s="16"/>
+      <c r="H237" s="20"/>
+      <c r="I237" s="21"/>
+    </row>
+    <row r="238" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C238" s="13"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F238" s="30"/>
+      <c r="G238" s="16"/>
+      <c r="H238" s="20"/>
+      <c r="I238" s="21"/>
+    </row>
+    <row r="239" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C239" s="13"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F239" s="30"/>
+      <c r="G239" s="16"/>
+      <c r="H239" s="20"/>
+      <c r="I239" s="21"/>
+    </row>
+    <row r="240" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C240" s="13"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F240" s="30"/>
+      <c r="G240" s="16"/>
+      <c r="H240" s="20"/>
+      <c r="I240" s="21"/>
+    </row>
+    <row r="241" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C241" s="13"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F241" s="30"/>
+      <c r="G241" s="16"/>
+      <c r="H241" s="20"/>
+      <c r="I241" s="21"/>
+    </row>
+    <row r="242" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C242" s="13"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F242" s="30"/>
+      <c r="G242" s="16"/>
+      <c r="H242" s="20"/>
+      <c r="I242" s="21"/>
+    </row>
+    <row r="243" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C243" s="13"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F243" s="30"/>
+      <c r="G243" s="16"/>
+      <c r="H243" s="20"/>
+      <c r="I243" s="21"/>
+    </row>
+    <row r="244" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C244" s="13"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F244" s="30"/>
+      <c r="G244" s="16"/>
+      <c r="H244" s="20"/>
+      <c r="I244" s="21"/>
+    </row>
+    <row r="245" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C245" s="13"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F245" s="30"/>
+      <c r="G245" s="16"/>
+      <c r="H245" s="20"/>
+      <c r="I245" s="21"/>
+    </row>
+    <row r="246" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C246" s="13"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F246" s="30"/>
+      <c r="G246" s="16"/>
+      <c r="H246" s="20"/>
+      <c r="I246" s="21"/>
+    </row>
+    <row r="247" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C247" s="13"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F247" s="30"/>
+      <c r="G247" s="16"/>
+      <c r="H247" s="20"/>
+      <c r="I247" s="21"/>
+    </row>
+    <row r="248" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C248" s="13"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F248" s="30"/>
+      <c r="G248" s="16"/>
+      <c r="H248" s="20"/>
+      <c r="I248" s="21"/>
+    </row>
+    <row r="249" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C249" s="13"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F249" s="30"/>
+      <c r="G249" s="16"/>
+      <c r="H249" s="20"/>
+      <c r="I249" s="21"/>
+    </row>
+    <row r="250" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C250" s="13"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F250" s="30"/>
+      <c r="G250" s="16"/>
+      <c r="H250" s="20"/>
+      <c r="I250" s="21"/>
+    </row>
+    <row r="251" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C251" s="13"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F251" s="30"/>
+      <c r="G251" s="16"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="21"/>
+    </row>
+    <row r="252" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C252" s="13"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F252" s="30"/>
+      <c r="G252" s="16"/>
+      <c r="H252" s="20"/>
+      <c r="I252" s="21"/>
+    </row>
+    <row r="253" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C253" s="13"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F253" s="30"/>
+      <c r="G253" s="16"/>
+      <c r="H253" s="20"/>
+      <c r="I253" s="21"/>
+    </row>
+    <row r="254" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C254" s="13"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F254" s="30"/>
+      <c r="G254" s="16"/>
+      <c r="H254" s="20"/>
+      <c r="I254" s="21"/>
+    </row>
+    <row r="255" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C255" s="13"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F255" s="30"/>
+      <c r="G255" s="16"/>
+      <c r="H255" s="20"/>
+      <c r="I255" s="21"/>
+    </row>
+    <row r="256" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C256" s="13"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F256" s="30"/>
+      <c r="G256" s="16"/>
+      <c r="H256" s="20"/>
+      <c r="I256" s="21"/>
+    </row>
+    <row r="257" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C257" s="13"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F257" s="30"/>
+      <c r="G257" s="16"/>
+      <c r="H257" s="20"/>
+      <c r="I257" s="21"/>
+    </row>
+    <row r="258" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C258" s="13"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F258" s="30"/>
+      <c r="G258" s="16"/>
+      <c r="H258" s="20"/>
+      <c r="I258" s="21"/>
+    </row>
+    <row r="259" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C259" s="13"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F259" s="30"/>
+      <c r="G259" s="16"/>
+      <c r="H259" s="20"/>
+      <c r="I259" s="21"/>
+    </row>
+    <row r="260" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C260" s="13"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F260" s="30"/>
+      <c r="G260" s="16"/>
+      <c r="H260" s="20"/>
+      <c r="I260" s="21"/>
+    </row>
+    <row r="261" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C261" s="13"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F261" s="30"/>
+      <c r="G261" s="16"/>
+      <c r="H261" s="20"/>
+      <c r="I261" s="21"/>
+    </row>
+    <row r="262" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="C262" s="13"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F262" s="30"/>
+      <c r="G262" s="16"/>
+      <c r="H262" s="20"/>
+      <c r="I262" s="21"/>
+    </row>
+    <row r="263" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="10" t="str">
+        <f t="shared" ref="B263:B300" si="8">IF(AND(C263&lt;&gt;"",C263&lt;&gt;0),B262+1,"")</f>
+        <v/>
+      </c>
+      <c r="C263" s="13"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="10" t="str">
+        <f t="shared" ref="E263:E300" si="9">IF(F263&lt;&gt;"",E262+1,"")</f>
+        <v/>
+      </c>
+      <c r="F263" s="30"/>
+      <c r="G263" s="16"/>
+      <c r="H263" s="20"/>
+      <c r="I263" s="21"/>
+    </row>
+    <row r="264" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C264" s="13"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F264" s="30"/>
+      <c r="G264" s="16"/>
+      <c r="H264" s="20"/>
+      <c r="I264" s="21"/>
+    </row>
+    <row r="265" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C265" s="13"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F265" s="30"/>
+      <c r="G265" s="16"/>
+      <c r="H265" s="20"/>
+      <c r="I265" s="21"/>
+    </row>
+    <row r="266" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C266" s="13"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F266" s="30"/>
+      <c r="G266" s="16"/>
+      <c r="H266" s="20"/>
+      <c r="I266" s="21"/>
+    </row>
+    <row r="267" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C267" s="13"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F267" s="30"/>
+      <c r="G267" s="16"/>
+      <c r="H267" s="20"/>
+      <c r="I267" s="21"/>
+    </row>
+    <row r="268" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C268" s="13"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F268" s="30"/>
+      <c r="G268" s="16"/>
+      <c r="H268" s="20"/>
+      <c r="I268" s="21"/>
+    </row>
+    <row r="269" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C269" s="13"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F269" s="30"/>
+      <c r="G269" s="16"/>
+      <c r="H269" s="20"/>
+      <c r="I269" s="21"/>
+    </row>
+    <row r="270" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C270" s="13"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F270" s="30"/>
+      <c r="G270" s="16"/>
+      <c r="H270" s="20"/>
+      <c r="I270" s="21"/>
+    </row>
+    <row r="271" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C271" s="13"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F271" s="30"/>
+      <c r="G271" s="16"/>
+      <c r="H271" s="20"/>
+      <c r="I271" s="21"/>
+    </row>
+    <row r="272" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C272" s="13"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F272" s="30"/>
+      <c r="G272" s="16"/>
+      <c r="H272" s="20"/>
+      <c r="I272" s="21"/>
+    </row>
+    <row r="273" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C273" s="13"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F273" s="30"/>
+      <c r="G273" s="16"/>
+      <c r="H273" s="20"/>
+      <c r="I273" s="21"/>
+    </row>
+    <row r="274" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C274" s="13"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F274" s="30"/>
+      <c r="G274" s="16"/>
+      <c r="H274" s="20"/>
+      <c r="I274" s="21"/>
+    </row>
+    <row r="275" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C275" s="13"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F275" s="30"/>
+      <c r="G275" s="16"/>
+      <c r="H275" s="20"/>
+      <c r="I275" s="21"/>
+    </row>
+    <row r="276" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C276" s="13"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F276" s="30"/>
+      <c r="G276" s="16"/>
+      <c r="H276" s="20"/>
+      <c r="I276" s="21"/>
+    </row>
+    <row r="277" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C277" s="13"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F277" s="30"/>
+      <c r="G277" s="16"/>
+      <c r="H277" s="20"/>
+      <c r="I277" s="21"/>
+    </row>
+    <row r="278" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C278" s="13"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F278" s="30"/>
+      <c r="G278" s="16"/>
+      <c r="H278" s="20"/>
+      <c r="I278" s="21"/>
+    </row>
+    <row r="279" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C279" s="13"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F279" s="30"/>
+      <c r="G279" s="16"/>
+      <c r="H279" s="20"/>
+      <c r="I279" s="21"/>
+    </row>
+    <row r="280" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C280" s="13"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F280" s="30"/>
+      <c r="G280" s="16"/>
+      <c r="H280" s="20"/>
+      <c r="I280" s="21"/>
+    </row>
+    <row r="281" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C281" s="13"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F281" s="30"/>
+      <c r="G281" s="16"/>
+      <c r="H281" s="20"/>
+      <c r="I281" s="21"/>
+    </row>
+    <row r="282" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C282" s="13"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F282" s="30"/>
+      <c r="G282" s="16"/>
+      <c r="H282" s="20"/>
+      <c r="I282" s="21"/>
+    </row>
+    <row r="283" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C283" s="13"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F283" s="30"/>
+      <c r="G283" s="16"/>
+      <c r="H283" s="20"/>
+      <c r="I283" s="21"/>
+    </row>
+    <row r="284" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C284" s="13"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F284" s="30"/>
+      <c r="G284" s="16"/>
+      <c r="H284" s="20"/>
+      <c r="I284" s="21"/>
+    </row>
+    <row r="285" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C285" s="13"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F285" s="30"/>
+      <c r="G285" s="16"/>
+      <c r="H285" s="20"/>
+      <c r="I285" s="21"/>
+    </row>
+    <row r="286" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C286" s="13"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F286" s="30"/>
+      <c r="G286" s="16"/>
+      <c r="H286" s="20"/>
+      <c r="I286" s="21"/>
+    </row>
+    <row r="287" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C287" s="13"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F287" s="30"/>
+      <c r="G287" s="16"/>
+      <c r="H287" s="20"/>
+      <c r="I287" s="21"/>
+    </row>
+    <row r="288" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C288" s="13"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F288" s="30"/>
+      <c r="G288" s="16"/>
+      <c r="H288" s="20"/>
+      <c r="I288" s="21"/>
+    </row>
+    <row r="289" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C289" s="13"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F289" s="30"/>
+      <c r="G289" s="16"/>
+      <c r="H289" s="20"/>
+      <c r="I289" s="21"/>
+    </row>
+    <row r="290" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C290" s="13"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F290" s="30"/>
+      <c r="G290" s="16"/>
+      <c r="H290" s="20"/>
+      <c r="I290" s="21"/>
+    </row>
+    <row r="291" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C291" s="13"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F291" s="30"/>
+      <c r="G291" s="16"/>
+      <c r="H291" s="20"/>
+      <c r="I291" s="21"/>
+    </row>
+    <row r="292" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C292" s="13"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F292" s="30"/>
+      <c r="G292" s="16"/>
+      <c r="H292" s="20"/>
+      <c r="I292" s="21"/>
+    </row>
+    <row r="293" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C293" s="13"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F293" s="30"/>
+      <c r="G293" s="16"/>
+      <c r="H293" s="20"/>
+      <c r="I293" s="21"/>
+    </row>
+    <row r="294" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C294" s="13"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F294" s="30"/>
+      <c r="G294" s="16"/>
+      <c r="H294" s="20"/>
+      <c r="I294" s="21"/>
+    </row>
+    <row r="295" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C295" s="13"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F295" s="30"/>
+      <c r="G295" s="16"/>
+      <c r="H295" s="20"/>
+      <c r="I295" s="21"/>
+    </row>
+    <row r="296" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C296" s="13"/>
+      <c r="D296" s="7"/>
+      <c r="E296" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F296" s="30"/>
+      <c r="G296" s="16"/>
+      <c r="H296" s="20"/>
+      <c r="I296" s="21"/>
+    </row>
+    <row r="297" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C297" s="13"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F297" s="30"/>
+      <c r="G297" s="16"/>
+      <c r="H297" s="20"/>
+      <c r="I297" s="21"/>
+    </row>
+    <row r="298" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C298" s="13"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F298" s="30"/>
+      <c r="G298" s="16"/>
+      <c r="H298" s="20"/>
+      <c r="I298" s="21"/>
+    </row>
+    <row r="299" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C299" s="13"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F299" s="30"/>
+      <c r="G299" s="16"/>
+      <c r="H299" s="20"/>
+      <c r="I299" s="21"/>
+    </row>
+    <row r="300" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C300" s="14"/>
+      <c r="D300" s="8"/>
+      <c r="E300" s="11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F300" s="31"/>
+      <c r="G300" s="17"/>
+      <c r="H300" s="22"/>
+      <c r="I300" s="23"/>
+    </row>
+    <row r="301" spans="2:9" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="F4:I300" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F5:I300">
+      <sortCondition descending="1" ref="I4:I300"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C60">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C299:C300 C5:C105">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C107">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108:C144">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108:C145">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:C182">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:C183">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184:C220">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184:C221">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222:C258">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222:C259">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260:C296">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260:C298">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I103">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{688A2A1C-D989-4717-8440-AC3444A87F87}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H103">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF9618E4-6BE8-4D9E-A318-A04233462A6C}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{688A2A1C-D989-4717-8440-AC3444A87F87}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I5:I103</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF9618E4-6BE8-4D9E-A318-A04233462A6C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H5:H103</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>